--- a/static/rasio.xlsx
+++ b/static/rasio.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\# REGISTRASI DAN STATISTIK\Website\202101\202101\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF9094AD-5BF1-4F4D-ACF4-AE4197FDA51A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1827D94-542F-42F8-9E51-9F7BBCB99879}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rasio" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="54">
   <si>
     <t>prodi</t>
   </si>
@@ -160,9 +160,6 @@
     <t>Ilmu Komunikasi</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Ilmu Pemerintahan</t>
   </si>
   <si>
@@ -176,12 +173,21 @@
   </si>
   <si>
     <t>Keperawatan</t>
+  </si>
+  <si>
+    <t>Ilmu Keperawatan</t>
+  </si>
+  <si>
+    <t>1 : 45</t>
+  </si>
+  <si>
+    <t>1 : 30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -659,10 +665,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1017,12 +1026,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1052,16 +1066,17 @@
         <v>7</v>
       </c>
       <c r="C2" s="1">
-        <v>1736</v>
+        <v>1901</v>
       </c>
       <c r="D2">
-        <v>56</v>
-      </c>
-      <c r="E2" s="2">
-        <v>6.3194444444444442E-2</v>
-      </c>
-      <c r="F2" s="2">
-        <v>7.2916666666666671E-2</v>
+        <v>55</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f>1&amp;" : "&amp;ROUND(C2/D2,0)</f>
+        <v>1 : 35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1072,16 +1087,17 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="D3">
         <v>16</v>
       </c>
-      <c r="E3" s="2">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>7.2916666666666671E-2</v>
+      <c r="E3" s="3" t="str">
+        <f t="shared" ref="E3:E45" si="0">1&amp;" : "&amp;ROUND(C3/D3,0)</f>
+        <v>1 : 23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1092,16 +1108,17 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>380</v>
+        <v>436</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
-      <c r="E4" s="2">
-        <v>5.486111111111111E-2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>7.2916666666666671E-2</v>
+      <c r="E4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1112,16 +1129,17 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="D5">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2">
-        <v>5.347222222222222E-2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>7.2916666666666671E-2</v>
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1132,16 +1150,17 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>509</v>
+        <v>579</v>
       </c>
       <c r="D6">
         <v>18</v>
       </c>
-      <c r="E6" s="2">
-        <v>6.1111111111111116E-2</v>
-      </c>
-      <c r="F6" s="2">
-        <v>6.25E-2</v>
+      <c r="E6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 32</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1152,16 +1171,17 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>435</v>
+        <v>496</v>
       </c>
       <c r="D7">
         <v>23</v>
       </c>
-      <c r="E7" s="2">
-        <v>5.4166666666666669E-2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>6.25E-2</v>
+      <c r="E7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 22</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -1172,16 +1192,17 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>529</v>
+        <v>593</v>
       </c>
       <c r="D8">
         <v>23</v>
       </c>
-      <c r="E8" s="2">
-        <v>5.7638888888888885E-2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>7.2916666666666671E-2</v>
+      <c r="E8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1192,16 +1213,17 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="D9">
         <v>12</v>
       </c>
-      <c r="E9" s="2">
-        <v>5.8333333333333327E-2</v>
-      </c>
-      <c r="F9" s="2">
-        <v>7.2916666666666671E-2</v>
+      <c r="E9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 25</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1212,16 +1234,17 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
-      <c r="E10" s="2">
-        <v>5.4166666666666669E-2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>6.25E-2</v>
+      <c r="E10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 24</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1232,16 +1255,17 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>189</v>
+        <v>254</v>
       </c>
       <c r="D11">
         <v>15</v>
       </c>
-      <c r="E11" s="2">
-        <v>4.9999999999999996E-2</v>
-      </c>
-      <c r="F11" s="2">
-        <v>6.25E-2</v>
+      <c r="E11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -1252,16 +1276,17 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
-      <c r="E12" s="2">
-        <v>5.486111111111111E-2</v>
-      </c>
-      <c r="F12" s="2">
-        <v>6.25E-2</v>
+      <c r="E12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 26</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1272,16 +1297,17 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D13">
         <v>8</v>
       </c>
-      <c r="E13" s="2">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>6.25E-2</v>
+      <c r="E13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 26</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1292,16 +1318,17 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="D14">
         <v>6</v>
       </c>
-      <c r="E14" s="2">
-        <v>5.6944444444444443E-2</v>
-      </c>
-      <c r="F14" s="2">
-        <v>6.25E-2</v>
+      <c r="E14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 26</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -1312,16 +1339,17 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>244</v>
+        <v>303</v>
       </c>
       <c r="D15">
         <v>10</v>
       </c>
-      <c r="E15" s="2">
-        <v>5.8333333333333327E-2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>7.2916666666666671E-2</v>
+      <c r="E15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 30</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1332,16 +1360,17 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="D16">
         <v>10</v>
       </c>
-      <c r="E16" s="2">
-        <v>5.6944444444444443E-2</v>
-      </c>
-      <c r="F16" s="2">
-        <v>7.2916666666666671E-2</v>
+      <c r="E16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 27</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1352,16 +1381,17 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D17">
         <v>8</v>
       </c>
-      <c r="E17" s="2">
-        <v>5.9027777777777783E-2</v>
-      </c>
-      <c r="F17" s="2">
-        <v>7.2916666666666671E-2</v>
+      <c r="E17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 31</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1372,16 +1402,17 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="D18">
         <v>10</v>
       </c>
-      <c r="E18" s="2">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="F18" s="2">
-        <v>7.2916666666666671E-2</v>
+      <c r="E18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 25</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1392,16 +1423,17 @@
         <v>7</v>
       </c>
       <c r="C19">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="D19">
-        <v>10</v>
-      </c>
-      <c r="E19" s="2">
-        <v>5.486111111111111E-2</v>
-      </c>
-      <c r="F19" s="2">
-        <v>7.2916666666666671E-2</v>
+        <v>11</v>
+      </c>
+      <c r="E19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 22</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1412,16 +1444,17 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="D20">
         <v>12</v>
       </c>
-      <c r="E20" s="2">
-        <v>5.4166666666666669E-2</v>
-      </c>
-      <c r="F20" s="2">
-        <v>7.2916666666666671E-2</v>
+      <c r="E20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 24</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1432,16 +1465,17 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>359</v>
+        <v>420</v>
       </c>
       <c r="D21">
-        <v>22</v>
-      </c>
-      <c r="E21" s="2">
-        <v>5.2777777777777778E-2</v>
-      </c>
-      <c r="F21" s="2">
-        <v>6.25E-2</v>
+        <v>23</v>
+      </c>
+      <c r="E21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 18</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -1452,16 +1486,17 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>434</v>
+        <v>490</v>
       </c>
       <c r="D22">
-        <v>26</v>
-      </c>
-      <c r="E22" s="2">
-        <v>5.2777777777777778E-2</v>
-      </c>
-      <c r="F22" s="2">
-        <v>6.25E-2</v>
+        <v>25</v>
+      </c>
+      <c r="E22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 20</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1472,16 +1507,17 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="D23">
-        <v>28</v>
-      </c>
-      <c r="E23" s="2">
-        <v>5.1388888888888894E-2</v>
-      </c>
-      <c r="F23" s="2">
-        <v>6.25E-2</v>
+        <v>27</v>
+      </c>
+      <c r="E23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 17</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -1492,16 +1528,17 @@
         <v>7</v>
       </c>
       <c r="C24">
-        <v>374</v>
+        <v>431</v>
       </c>
       <c r="D24">
-        <v>21</v>
-      </c>
-      <c r="E24" s="2">
-        <v>5.347222222222222E-2</v>
-      </c>
-      <c r="F24" s="2">
-        <v>6.25E-2</v>
+        <v>20</v>
+      </c>
+      <c r="E24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 22</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -1512,16 +1549,17 @@
         <v>7</v>
       </c>
       <c r="C25">
-        <v>448</v>
+        <v>493</v>
       </c>
       <c r="D25">
         <v>34</v>
       </c>
-      <c r="E25" s="2">
-        <v>5.0694444444444452E-2</v>
-      </c>
-      <c r="F25" s="2">
-        <v>6.25E-2</v>
+      <c r="E25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 15</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -1532,16 +1570,17 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>387</v>
+        <v>463</v>
       </c>
       <c r="D26">
         <v>21</v>
       </c>
-      <c r="E26" s="2">
-        <v>5.4166666666666669E-2</v>
-      </c>
-      <c r="F26" s="2">
-        <v>6.25E-2</v>
+      <c r="E26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 22</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -1552,16 +1591,17 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <v>532</v>
+        <v>655</v>
       </c>
       <c r="D27">
         <v>25</v>
       </c>
-      <c r="E27" s="2">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="F27" s="2">
-        <v>6.25E-2</v>
+      <c r="E27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 26</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -1572,16 +1612,17 @@
         <v>7</v>
       </c>
       <c r="C28">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="D28">
-        <v>25</v>
-      </c>
-      <c r="E28" s="2">
-        <v>5.486111111111111E-2</v>
-      </c>
-      <c r="F28" s="2">
-        <v>6.25E-2</v>
+        <v>27</v>
+      </c>
+      <c r="E28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 23</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1592,16 +1633,17 @@
         <v>7</v>
       </c>
       <c r="C29">
-        <v>341</v>
+        <v>423</v>
       </c>
       <c r="D29">
-        <v>20</v>
-      </c>
-      <c r="E29" s="2">
-        <v>5.347222222222222E-2</v>
-      </c>
-      <c r="F29" s="2">
-        <v>6.25E-2</v>
+        <v>19</v>
+      </c>
+      <c r="E29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 22</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -1612,16 +1654,17 @@
         <v>7</v>
       </c>
       <c r="C30">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="D30">
         <v>10</v>
       </c>
-      <c r="E30" s="2">
-        <v>5.0694444444444452E-2</v>
-      </c>
-      <c r="F30" s="2">
-        <v>6.25E-2</v>
+      <c r="E30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 23</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -1632,16 +1675,17 @@
         <v>7</v>
       </c>
       <c r="C31">
-        <v>679</v>
+        <v>740</v>
       </c>
       <c r="D31">
-        <v>38</v>
-      </c>
-      <c r="E31" s="2">
-        <v>5.347222222222222E-2</v>
-      </c>
-      <c r="F31" s="2">
-        <v>7.2916666666666671E-2</v>
+        <v>48</v>
+      </c>
+      <c r="E31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 15</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -1652,19 +1696,20 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>663</v>
+        <v>740</v>
       </c>
       <c r="D32">
-        <v>36</v>
-      </c>
-      <c r="E32" s="2">
-        <v>5.4166666666666669E-2</v>
-      </c>
-      <c r="F32" s="2">
-        <v>7.2916666666666671E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="E32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 18</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1672,19 +1717,20 @@
         <v>7</v>
       </c>
       <c r="C33">
-        <v>414</v>
+        <v>457</v>
       </c>
       <c r="D33">
-        <v>18</v>
-      </c>
-      <c r="E33" s="2">
-        <v>5.7638888888888885E-2</v>
-      </c>
-      <c r="F33" s="2">
-        <v>7.2916666666666671E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="E33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 21</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1692,19 +1738,20 @@
         <v>7</v>
       </c>
       <c r="C34">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="D34">
-        <v>10</v>
-      </c>
-      <c r="E34" s="2">
-        <v>5.4166666666666669E-2</v>
-      </c>
-      <c r="F34" s="2">
-        <v>7.2916666666666671E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="E34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 78</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1712,19 +1759,20 @@
         <v>40</v>
       </c>
       <c r="C35">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D35">
-        <v>7</v>
-      </c>
-      <c r="E35" s="2">
-        <v>6.1111111111111116E-2</v>
-      </c>
-      <c r="F35" s="2">
-        <v>7.2916666666666671E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 49</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1732,19 +1780,20 @@
         <v>40</v>
       </c>
       <c r="C36">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D36">
-        <v>8</v>
-      </c>
-      <c r="E36" s="2">
-        <v>4.7916666666666663E-2</v>
-      </c>
-      <c r="F36" s="2">
-        <v>7.2916666666666671E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="E36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 29</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1752,19 +1801,20 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="D37">
-        <v>3</v>
-      </c>
-      <c r="E37" s="2">
-        <v>7.9861111111111105E-2</v>
-      </c>
-      <c r="F37" s="2">
-        <v>7.2916666666666671E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 183</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1772,19 +1822,20 @@
         <v>40</v>
       </c>
       <c r="C38">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D38">
-        <v>5</v>
-      </c>
-      <c r="E38" s="2">
-        <v>5.6944444444444443E-2</v>
-      </c>
-      <c r="F38" s="2">
-        <v>7.2916666666666671E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 132</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1792,19 +1843,20 @@
         <v>7</v>
       </c>
       <c r="C39">
-        <v>635</v>
+        <v>714</v>
       </c>
       <c r="D39">
         <v>23</v>
       </c>
-      <c r="E39" s="2">
-        <v>6.0416666666666667E-2</v>
-      </c>
-      <c r="F39" s="2">
-        <v>7.2916666666666671E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 31</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -1812,122 +1864,147 @@
         <v>7</v>
       </c>
       <c r="C40">
-        <v>685</v>
+        <v>827</v>
       </c>
       <c r="D40">
         <v>27</v>
       </c>
-      <c r="E40" s="2">
-        <v>5.9027777777777783E-2</v>
-      </c>
-      <c r="F40" s="2">
-        <v>7.2916666666666671E-2</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="E40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 31</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>47</v>
-      </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
       <c r="C41">
-        <v>479</v>
+        <v>528</v>
       </c>
       <c r="D41">
         <v>11</v>
       </c>
-      <c r="E41" s="2">
-        <v>7.1527777777777787E-2</v>
-      </c>
-      <c r="F41" s="2">
-        <v>7.2916666666666671E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 48</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>100</v>
+      </c>
+      <c r="D42">
+        <v>22</v>
+      </c>
+      <c r="E42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 5</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>48</v>
       </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42">
-        <v>50</v>
-      </c>
-      <c r="D42">
-        <v>21</v>
-      </c>
-      <c r="E42" s="2">
-        <v>4.3055555555555562E-2</v>
-      </c>
-      <c r="F42" s="2">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>76</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 25</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>49</v>
       </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43">
-        <v>39</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43" s="2">
-        <v>5.486111111111111E-2</v>
-      </c>
-      <c r="F43" s="2">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>50</v>
-      </c>
       <c r="B44" t="s">
         <v>7</v>
       </c>
       <c r="C44">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D44">
-        <v>7</v>
-      </c>
-      <c r="E44" s="2">
-        <v>4.4444444444444446E-2</v>
-      </c>
-      <c r="F44" s="2">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 8</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>51</v>
       </c>
       <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>27</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 : 5</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
         <v>40</v>
       </c>
-      <c r="C45">
-        <v>348</v>
-      </c>
-      <c r="D45">
-        <v>14</v>
-      </c>
-      <c r="E45" s="2">
-        <v>5.8333333333333327E-2</v>
-      </c>
-      <c r="F45" s="2">
-        <v>6.25E-2</v>
+      <c r="C46">
+        <v>294</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46" s="3" t="str">
+        <f>1&amp;" : "&amp;ROUND(C46/D46,0)</f>
+        <v>1 : 37</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/static/rasio.xlsx
+++ b/static/rasio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\# REGISTRASI DAN STATISTIK\Website\202101\202101\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1827D94-542F-42F8-9E51-9F7BBCB99879}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C063AE8F-FFB4-427B-B16E-2286A5782572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1029,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1066,7 +1066,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1">
-        <v>1901</v>
+        <v>1916</v>
       </c>
       <c r="D2">
         <v>55</v>
@@ -1087,14 +1087,14 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="D3">
         <v>16</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E45" si="0">1&amp;" : "&amp;ROUND(C3/D3,0)</f>
-        <v>1 : 23</v>
+        <v>1 : 24</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>52</v>
@@ -1108,7 +1108,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -1129,7 +1129,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="D5">
         <v>29</v>
@@ -1150,7 +1150,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="D6">
         <v>18</v>
@@ -1171,7 +1171,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D7">
         <v>23</v>
@@ -1192,7 +1192,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D8">
         <v>23</v>
@@ -1213,7 +1213,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D9">
         <v>12</v>
@@ -1234,14 +1234,14 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1 : 24</v>
+        <v>1 : 25</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>53</v>
@@ -1255,7 +1255,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D11">
         <v>15</v>
@@ -1276,7 +1276,7 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -1318,7 +1318,7 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -1339,7 +1339,7 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -1360,7 +1360,7 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -1381,14 +1381,14 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D17">
         <v>8</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1 : 31</v>
+        <v>1 : 32</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>52</v>
@@ -1402,7 +1402,7 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D18">
         <v>10</v>
@@ -1465,14 +1465,14 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D21">
         <v>23</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1 : 18</v>
+        <v>1 : 19</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>53</v>
@@ -1486,14 +1486,14 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1 : 20</v>
+        <v>1 : 21</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>53</v>
@@ -1507,7 +1507,7 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D23">
         <v>27</v>
@@ -1528,7 +1528,7 @@
         <v>7</v>
       </c>
       <c r="C24">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="D24">
         <v>20</v>
@@ -1549,7 +1549,7 @@
         <v>7</v>
       </c>
       <c r="C25">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="D25">
         <v>34</v>
@@ -1570,7 +1570,7 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="D26">
         <v>21</v>
@@ -1591,14 +1591,14 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="D27">
         <v>25</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1 : 26</v>
+        <v>1 : 27</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>53</v>
@@ -1612,7 +1612,7 @@
         <v>7</v>
       </c>
       <c r="C28">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1633,7 +1633,7 @@
         <v>7</v>
       </c>
       <c r="C29">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D29">
         <v>19</v>
@@ -1654,14 +1654,14 @@
         <v>7</v>
       </c>
       <c r="C30">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D30">
         <v>10</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1 : 23</v>
+        <v>1 : 24</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>53</v>
@@ -1675,14 +1675,14 @@
         <v>7</v>
       </c>
       <c r="C31">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="D31">
         <v>48</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1 : 15</v>
+        <v>1 : 16</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>52</v>
@@ -1696,7 +1696,7 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="D32">
         <v>41</v>
@@ -1717,7 +1717,7 @@
         <v>7</v>
       </c>
       <c r="C33">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D33">
         <v>22</v>
@@ -1738,7 +1738,7 @@
         <v>7</v>
       </c>
       <c r="C34">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -1759,14 +1759,14 @@
         <v>40</v>
       </c>
       <c r="C35">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D35">
         <v>4</v>
       </c>
       <c r="E35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1 : 49</v>
+        <v>1 : 50</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>52</v>
@@ -1801,14 +1801,14 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1 : 183</v>
+        <v>1 : 184</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>52</v>
@@ -1843,7 +1843,7 @@
         <v>7</v>
       </c>
       <c r="C39">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D39">
         <v>23</v>
@@ -1864,7 +1864,7 @@
         <v>7</v>
       </c>
       <c r="C40">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="D40">
         <v>27</v>
@@ -1885,7 +1885,7 @@
         <v>7</v>
       </c>
       <c r="C41">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D41">
         <v>11</v>
@@ -1906,7 +1906,7 @@
         <v>7</v>
       </c>
       <c r="C42">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D42">
         <v>22</v>
